--- a/test_asom_full.xlsx
+++ b/test_asom_full.xlsx
@@ -660,7 +660,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>What data is available for threat detection and modeling? (D3-D - Detect) (D3-D - Detect)</t>
+          <t>What data is available for threat detection and modeling? (D3-D - Detect)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>What data is available for threat detection and modeling? (D3-D - Detect) (D3-D - Detect)</t>
+          <t>What data is available for threat detection and modeling? (D3-D - Detect)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Has the adversary gained initial access using valid accounts? (TA0001 - Initial Access)</t>
+          <t>Has the adversary gained initial access to the network via exploiting a public-facing application? (TA0001 - Initial Access)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>T1078 - Valid Accounts</t>
+          <t>T1190 - Exploit Public-Facing Application</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>T1078</t>
+          <t>T1190</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Valid Accounts</t>
+          <t>Exploit Public-Facing Application</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -846,17 +846,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Successful login attempt matching a known breached credential from a public or private data leak.</t>
+          <t>A public-facing server initiating unexpected outbound network connections or exhibiting anomalous data transfer patterns shortly after suspicious inbound activity.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Windows Event ID 4624; Windows Event ID 4625</t>
+          <t>Zeek conn.log</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Servers</t>
+          <t>Network devices</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Correlate usernames from successful and failed login events (Windows Event IDs 4624, 4625) against a curated list of known breached credentials relevant to the organization. If password hashes are logged (e.g., for NTLM), they can also be matched. A successful login (4624) using a known breached credential is a high-confidence indicator of compromise and requires immediate investigation of the session activity.</t>
+          <t>Monitor Zeek conn.log for all outbound connections originating from the IP addresses of public-facing servers. Establish a baseline of normal outbound destinations, ports, and data volumes for each server/application. Alert on new or rare outbound connections, especially to non-standard ports or known dynamic DNS providers. Use time series analysis to detect sudden spikes in outbound data volume. Use descriptive statistics (mean, standard deviation, percentiles) on connection duration and bytes transferred to identify outlier sessions, which may represent reverse shells or initial data exfiltration.</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Has the adversary gained initial access using valid accounts? (TA0001 - Initial Access)</t>
+          <t>Has the adversary gained initial access to the network via exploiting a public-facing application? (TA0001 - Initial Access)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>T1078 - Valid Accounts</t>
+          <t>T1190 - Exploit Public-Facing Application</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>T1078</t>
+          <t>T1190</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Valid Accounts</t>
+          <t>Exploit Public-Facing Application</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -919,12 +919,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Password spraying pattern detected, characterized by a high volume of failed logins for multiple accounts with a limited set of passwords from a single or few source IPs.</t>
+          <t>Anomalous process execution on a public-facing server, such as a web server process spawning a command shell, reconnaissance commands, or an unexpected child process.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Windows Event ID 4625</t>
+          <t>Windows Event ID 4688</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Monitor for a high rate of failed logins (Windows Event ID 4625) originating from one or a few source IPs targeting many different user accounts within a short time window. Use correlation analysis to identify a one-to-many or few-to-many relationship between source IPs and distinct target accounts. A high ratio of distinct failed accounts to source IPs is a strong indicator of password spraying.</t>
+          <t>On public-facing servers, monitor Windows Event ID 4688 for process creation events. Establish a baseline of normal parent-child process relationships. Alert on anomalous chains, especially a web server process (e.g., w3wp.exe, httpd.exe, tomcat.exe) spawning a command interpreter (cmd.exe, powershell.exe), network utility (net.exe, whoami.exe, ipconfig.exe, curl.exe), or any script host (cscript.exe, wscript.exe). Correlate the timing of these events with suspicious inbound traffic identified in Zeek logs to pinpoint potential exploitation.</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Has the adversary gained initial access using valid accounts? (TA0001 - Initial Access)</t>
+          <t>Has the adversary gained initial access to the network via exploiting a public-facing application? (TA0001 - Initial Access)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -972,17 +972,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>T1078 - Valid Accounts</t>
+          <t>T1190 - Exploit Public-Facing Application</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>T1078</t>
+          <t>T1190</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Valid Accounts</t>
+          <t>Exploit Public-Facing Application</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -992,17 +992,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>A valid account login exhibits multiple anomalous characteristics simultaneously, such as originating from a rare geographic location, using an unfamiliar device, and occurring outside of normal working hours.</t>
+          <t>Network traffic targeting public-facing applications originating from known malicious IP addresses or matching high-confidence signatures for specific vulnerabilities (e.g., known CVEs).</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Windows Event ID 4624; Zeek conn.log</t>
+          <t>Zeek conn.log; Zeek signatures.log</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Servers; Network devices</t>
+          <t>Network devices</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>For each successful login (Windows Event ID 4624), enrich with geolocation data from the source IP (Zeek conn.log). Establish a multi-faceted baseline for each user account including typical login times, source countries/ISPs, and devices used. Use a scoring system where deviations from the baseline (e.g., rare country, login at 3 AM, new device) add to a risk score. A high cumulative risk score, identified using statistical models or descriptive statistics (e.g., multiple metrics exceeding 2 standard deviations from the norm), indicates a likely compromised account.</t>
+          <t>Correlate source IP addresses from Zeek conn.log traffic targeting public-facing web servers with a continuously updated CTI feed of IPs known for scanning or exploitation activity. Separately, monitor Zeek signatures.log for alerts with specific CVE identifiers (e.g., Log4Shell, ProxyLogon, F5 BIG-IP RCE) and prioritize these high-fidelity events. Inner join signature alert logs with connection logs to investigate the full session context for confirmed malicious activity.</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Has the adversary gained initial access using valid accounts? (TA0001 - Initial Access)</t>
+          <t>Has the adversary gained initial access to the network via exploiting a public-facing application? (TA0001 - Initial Access)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1045,17 +1045,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>T1078 - Valid Accounts</t>
+          <t>T1190 - Exploit Public-Facing Application</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>T1078</t>
+          <t>T1190</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Valid Accounts</t>
+          <t>Exploit Public-Facing Application</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1065,17 +1065,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>A valid account logs into a critical asset or a system it has never accessed before, especially if the access is inconsistent with the user's role.</t>
+          <t>Presence of common exploit patterns, reconnaissance tool User-Agents, or webshell-related artifacts in web server traffic logs.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Windows Event ID 4624</t>
+          <t>Zeek http.log; Zeek files.log</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Servers; Endpoints</t>
+          <t>Network devices</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Maintain a historical baseline of system access for each user account. For each new successful login (Windows Event ID 4624), perform a lookup to check if the user-system pair is novel. Analyze the novelty against the user's role and the criticality of the asset. Use frequency analysis and graph analytics to model user-to-asset access patterns and flag significant deviations, such as a user from marketing logging into a developer's server for the first time.</t>
+          <t>Use regular expression matching on Zeek http.log URIs, headers, and request bodies to detect common attack strings (e.g., 'SELECT...FROM', '../', '&lt;script&gt;', 'powershell.exe', 'bash -c'). Maintain and search for a list of User-Agent strings associated with vulnerability scanners and exploitation tools (e.g., nmap, sqlmap, Metasploit, Nuclei). Monitor Zeek files.log for files transferred via HTTP with common webshell extensions (.php, .aspx, .jsp) or names (e.g., cmd.asp, shell.php).</t>
         </is>
       </c>
     </row>
@@ -1094,61 +1094,61 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Has the adversary achieved privilege escalation using valid accounts? (TA0004 - Privilege Escalation)</t>
+          <t>Has the adversary gained initial access to the network via exploiting a public-facing application? (TA0001 - Initial Access)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TA0004</t>
+          <t>TA0001</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Privilege Escalation</t>
+          <t>Initial Access</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>T1078 - Valid Accounts</t>
+          <t>T1190 - Exploit Public-Facing Application</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>T1078</t>
+          <t>T1190</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Valid Accounts</t>
+          <t>Exploit Public-Facing Application</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3.1.1</t>
+          <t>2.1.5</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>A known default, high-privilege service or application account is used for an interactive or remote login for the first time or from an unusual source.</t>
+          <t>Statistically significant deviation in web traffic metrics for a public-facing application, such as an unusual spike in error rates, a sudden change in request methods, or high entropy in URL parameters.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Windows Event ID 4624</t>
+          <t>Zeek http.log</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Servers; Endpoints</t>
+          <t>Network devices</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Maintain a selector list of known default administrative accounts for hardware and software in the environment (e.g., vendor-specific defaults). Monitor for any interactive (Logon Type 2) or remote (Logon Type 3, 10) successful logins (Windows Event ID 4624) using these accounts. Alert on any such login, as these accounts should typically not be used for interactive sessions.</t>
+          <t>Aggregate Zeek http.log data per public-facing application. Calculate time series data for metrics like HTTP status code counts (especially 4xx/5xx errors), request method distribution (GET, POST, etc.), and request volume. Use time series analysis (e.g., ARIMA, Holt-Winters) to detect anomalous spikes or shifts in these metrics compared to historical norms. For dynamic applications, calculate the Shannon entropy of URL parameters or paths for each source IP over a sliding window; a sustained high entropy can indicate fuzzing or scanning attempts. Use Inter-Quartile Range (IQR) or Z-score methods to flag outlier values in these metrics for further investigation.</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1171,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Has the adversary achieved privilege escalation using valid accounts? (TA0004 - Privilege Escalation)</t>
+          <t>Has the adversary gained initial access to the network via phishing? (TA0001 - Initial Access)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TA0004</t>
+          <t>TA0001</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Privilege Escalation</t>
+          <t>Initial Access</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1191,37 +1191,37 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>T1078 - Valid Accounts</t>
+          <t>T1566 - Phishing</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>T1078</t>
+          <t>T1566</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Valid Accounts</t>
+          <t>Phishing</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3.1.2</t>
+          <t>3.1.1</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>A valid non-administrative account is added to a privileged security group, followed by that account being used to log in.</t>
+          <t>A user clicks a link in an email followed by network traffic to a newly registered or low-reputation domain and subsequent submission of data via HTTP POST.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Windows Event ID 4728; Windows Event ID 4732; Windows Event ID 4624</t>
+          <t>Zeek smtp.log; Zeek dns.log; Zeek http.log</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Servers</t>
+          <t>Network devices</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Monitor for member addition events to privileged groups (e.g., Domain Admins, Administrators) via Windows Event IDs 4728 (global group) and 4732 (local group). This is a known pattern of privilege escalation. Correlate this event with a subsequent successful login (Windows Event ID 4624) by the newly privileged account within a short timeframe (e.g., 1 hour). This sequence is a high-confidence alert.</t>
+          <t>Correlate email receipt (Zeek smtp.log) with subsequent DNS queries (Zeek dns.log) for domains found in email bodies. Check domain age (via WHOIS data enrichment) and reputation against threat intelligence. If a user browses to a new or suspicious site (Zeek http.log), monitor for an HTTP POST request, especially if the Content-Type is 'application/x-www-form-urlencoded', which may indicate credential submission to a phishing page. Use time series analysis on DNS logs to identify spikes in queries to previously unseen domains across the enterprise.</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1244,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Has the adversary achieved privilege escalation using valid accounts? (TA0004 - Privilege Escalation)</t>
+          <t>Has the adversary gained initial access to the network via phishing? (TA0001 - Initial Access)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TA0004</t>
+          <t>TA0001</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Privilege Escalation</t>
+          <t>Initial Access</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1264,37 +1264,37 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>T1078 - Valid Accounts</t>
+          <t>T1566 - Phishing</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>T1078</t>
+          <t>T1566</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Valid Accounts</t>
+          <t>Phishing</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3.1.3</t>
+          <t>3.1.2</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>A standard user account successfully logs into a series of systems or uses explicit credentials for services it does not typically access, following activity indicative of credential theft on its source machine.</t>
+          <t>Anomalous process execution chain originating from an email client or browser, such as an Office application spawning a shell or scripting interpreter.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Windows Event ID 4624; Windows Event ID 4648; Windows Event ID 4688</t>
+          <t>Windows Event ID 4688</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Servers; Endpoints</t>
+          <t>Endpoints; Servers</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Establish a behavioral baseline of normal resource access for each user. Monitor for alerts related to credential dumping (e.g., access to LSASS process) on a user's machine. Following such an alert, track the associated user account for anomalous remote logins (Windows Event ID 4624) or explicit credential use (Windows Event ID 4648) to new systems or services. Use correlation analysis to link the potential credential theft event with the subsequent anomalous access, indicating the stolen credentials are being used to escalate privileges.</t>
+          <t>Monitor Windows Event ID 4688 for parent-child process relationships. Flag suspicious chains commonly associated with phishing payloads, such as an email client (e.g., outlook.exe) or browser spawning an Office application (e.g., winword.exe), which in turn spawns a command shell (cmd.exe), scripting interpreter (powershell.exe, wscript.exe, cscript.exe), or living-off-the-land binary (mshta.exe, rundll32.exe). Establish a baseline of normal parent-child process relationships and use correlation analysis to identify and alert on rare or known-bad deviations.</t>
         </is>
       </c>
     </row>
@@ -1317,17 +1317,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Has the adversary achieved privilege escalation using valid accounts? (TA0004 - Privilege Escalation)</t>
+          <t>Has the adversary gained initial access to the network via phishing? (TA0001 - Initial Access)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TA0004</t>
+          <t>TA0001</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Privilege Escalation</t>
+          <t>Initial Access</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1337,37 +1337,37 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>T1078 - Valid Accounts</t>
+          <t>T1566 - Phishing</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>T1078</t>
+          <t>T1566</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Valid Accounts</t>
+          <t>Phishing</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3.1.4</t>
+          <t>3.1.3</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>An unusual number of distinct user accounts log into a single non-standard host, such as a user endpoint, in a short period.</t>
+          <t>Emails matching known phishing campaign templates, containing common malicious attachment names or types, or exhibiting specific header manipulation patterns.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Windows Event ID 4624</t>
+          <t>Zeek smtp.log; Zeek files.log</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Endpoints</t>
+          <t>Network devices</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Aggregate successful login events (Windows Event ID 4624) by destination host. Profile the normal number of distinct users logging into different types of systems (e.g., servers vs. endpoints). Use descriptive statistics and outlier detection (e.g., IQR, Z-score) to flag any host, particularly a standard user workstation, that receives successful logins from an anomalously high number of distinct accounts in a short time. This may indicate the host is compromised and being used to harvest credentials from multiple users.</t>
+          <t>Use regular expressions to scan Zeek smtp.log subjects and bodies for patterns common to known phishing campaigns (e.g., 'Urgent - Invoice Overdue', 'Password Reset Confirmation'). Monitor Zeek files.log for suspicious attachment filenames (e.g., '*.pdf.exe', 'invoice_*.zip', double extensions). Analyze SMTP headers for specific patterns like a mismatch between 'From:' and 'Reply-To:' fields or the presence of unusual 'X-' headers commonly used by phishing kits.</t>
         </is>
       </c>
     </row>
@@ -1386,11 +1386,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Has the adversary gained initial access to the network via exploiting a public-facing application? (TA0001 - Initial Access)</t>
+          <t>Has the adversary gained initial access to the network via phishing? (TA0001 - Initial Access)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1405,37 +1405,37 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>T1190 - Exploit Public-Facing Application</t>
+          <t>T1566 - Phishing</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>T1190</t>
+          <t>T1566</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Exploit Public-Facing Application</t>
+          <t>Phishing</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>4.1.1</t>
+          <t>3.1.4</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Network traffic targeting public-facing applications originating from known malicious IP addresses or matching high-confidence signatures for specific vulnerabilities (e.g., known CVEs).</t>
+          <t>Emails originating from domains with no prior history of communication or those exhibiting anomalous sending patterns compared to established baselines.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Zeek conn.log; Zeek signatures.log</t>
+          <t>Zeek smtp.log</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Correlate source IP addresses from Zeek conn.log traffic targeting public-facing web servers with a continuously updated CTI feed of IPs known for scanning or exploitation activity. Separately, monitor Zeek signatures.log for alerts with specific CVE identifiers (e.g., Log4Shell, ProxyLogon, F5 BIG-IP RCE) and prioritize these high-fidelity events. Inner join signature alert logs with connection logs to investigate the full session context for confirmed malicious activity.</t>
+          <t>Establish a baseline of normal email flow by analyzing historical Zeek smtp.log data to map sender-recipient relationships and typical email volume/frequency. Use descriptive statistics and time series analysis to identify a sudden spike in emails from a new external domain or a sudden change in sending patterns from a previously trusted domain. Calculate the entropy of sender domains on a per-user or per-organization basis; a sudden increase can indicate a targeted phishing wave. Flag emails from domains that impersonate the organization's domain but fail SPF/DKIM/DMARC checks.</t>
         </is>
       </c>
     </row>
@@ -1459,11 +1459,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Has the adversary gained initial access to the network via exploiting a public-facing application? (TA0001 - Initial Access)</t>
+          <t>Has the adversary gained initial access to the network via phishing? (TA0001 - Initial Access)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1478,37 +1478,37 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>T1190 - Exploit Public-Facing Application</t>
+          <t>T1566 - Phishing</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>T1190</t>
+          <t>T1566</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Exploit Public-Facing Application</t>
+          <t>Phishing</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4.1.2</t>
+          <t>3.1.5</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Presence of common exploit patterns, reconnaissance tool User-Agents, or webshell-related artifacts in web server traffic logs.</t>
+          <t>Receipt of emails containing known malicious indicators, such as URLs, domains, IP addresses, or file attachment hashes from threat intelligence feeds.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Zeek http.log; Zeek files.log</t>
+          <t>Zeek files.log; Zeek smtp.log; Zeek http.log; Zeek conn.log</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Use regular expression matching on Zeek http.log URIs, headers, and request bodies to detect common attack strings (e.g., 'SELECT...FROM', '../', '&lt;script&gt;', 'powershell.exe', 'bash -c'). Maintain and search for a list of User-Agent strings associated with vulnerability scanners and exploitation tools (e.g., nmap, sqlmap, Metasploit, Nuclei). Monitor Zeek files.log for files transferred via HTTP with common webshell extensions (.php, .aspx, .jsp) or names (e.g., cmd.asp, shell.php).</t>
+          <t>Continuously ingest high-confidence Cyber Threat Intelligence (CTI) feeds of malicious URLs, domains, IP addresses, and file hashes. Create a process to inner join this CTI data with network logs. Correlate Zeek smtp.log data (sender IP, URLs in body), Zeek http.log data (visited URLs/domains), Zeek conn.log (connections to known malicious IPs), and Zeek files.log (MD5/SHA1 hashes of email attachments) against the CTI feeds. Generate an alert for any match.</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Has the adversary gained initial access to the network via exploiting a public-facing application? (TA0001 - Initial Access)</t>
+          <t>Has the adversary gained initial access using valid accounts? (TA0001 - Initial Access)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1556,37 +1556,37 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>T1190 - Exploit Public-Facing Application</t>
+          <t>T1078 - Valid Accounts</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>T1190</t>
+          <t>T1078</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Exploit Public-Facing Application</t>
+          <t>Valid Accounts</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>4.1.3</t>
+          <t>4.1.1</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Anomalous process execution on a public-facing server, such as a web server process spawning a command shell, reconnaissance commands, or an unexpected child process.</t>
+          <t>A valid account login exhibits multiple anomalous characteristics simultaneously, such as originating from a rare geographic location, using an unfamiliar device, and occurring outside of normal working hours.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Windows Event ID 4688</t>
+          <t>Windows Event ID 4624; Zeek conn.log</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Servers</t>
+          <t>Servers; Network devices</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>On public-facing servers, monitor Windows Event ID 4688 for process creation events. Establish a baseline of normal parent-child process relationships. Alert on anomalous chains, especially a web server process (e.g., w3wp.exe, httpd.exe, tomcat.exe) spawning a command interpreter (cmd.exe, powershell.exe), network utility (net.exe, whoami.exe, ipconfig.exe, curl.exe), or any script host (cscript.exe, wscript.exe). Correlate the timing of these events with suspicious inbound traffic identified in Zeek logs to pinpoint potential exploitation.</t>
+          <t>For each successful login (Windows Event ID 4624), enrich with geolocation data from the source IP (Zeek conn.log). Establish a multi-faceted baseline for each user account including typical login times, source countries/ISPs, and devices used. Use a scoring system where deviations from the baseline (e.g., rare country, login at 3 AM, new device) add to a risk score. A high cumulative risk score, identified using statistical models or descriptive statistics (e.g., multiple metrics exceeding 2 standard deviations from the norm), indicates a likely compromised account.</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Has the adversary gained initial access to the network via exploiting a public-facing application? (TA0001 - Initial Access)</t>
+          <t>Has the adversary gained initial access using valid accounts? (TA0001 - Initial Access)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1629,37 +1629,37 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>T1190 - Exploit Public-Facing Application</t>
+          <t>T1078 - Valid Accounts</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>T1190</t>
+          <t>T1078</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Exploit Public-Facing Application</t>
+          <t>Valid Accounts</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>4.1.4</t>
+          <t>4.1.2</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>A public-facing server initiating unexpected outbound network connections or exhibiting anomalous data transfer patterns shortly after suspicious inbound activity.</t>
+          <t>A valid account logs into a critical asset or a system it has never accessed before, especially if the access is inconsistent with the user's role.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Zeek conn.log</t>
+          <t>Windows Event ID 4624</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Network devices</t>
+          <t>Servers; Endpoints</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Monitor Zeek conn.log for all outbound connections originating from the IP addresses of public-facing servers. Establish a baseline of normal outbound destinations, ports, and data volumes for each server/application. Alert on new or rare outbound connections, especially to non-standard ports or known dynamic DNS providers. Use time series analysis to detect sudden spikes in outbound data volume. Use descriptive statistics (mean, standard deviation, percentiles) on connection duration and bytes transferred to identify outlier sessions, which may represent reverse shells or initial data exfiltration.</t>
+          <t>Maintain a historical baseline of system access for each user account. For each new successful login (Windows Event ID 4624), perform a lookup to check if the user-system pair is novel. Analyze the novelty against the user's role and the criticality of the asset. Use frequency analysis and graph analytics to model user-to-asset access patterns and flag significant deviations, such as a user from marketing logging into a developer's server for the first time.</t>
         </is>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Has the adversary gained initial access to the network via exploiting a public-facing application? (TA0001 - Initial Access)</t>
+          <t>Has the adversary gained initial access using valid accounts? (TA0001 - Initial Access)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1702,37 +1702,37 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>T1190 - Exploit Public-Facing Application</t>
+          <t>T1078 - Valid Accounts</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>T1190</t>
+          <t>T1078</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Exploit Public-Facing Application</t>
+          <t>Valid Accounts</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4.1.5</t>
+          <t>4.1.3</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Statistically significant deviation in web traffic metrics for a public-facing application, such as an unusual spike in error rates, a sudden change in request methods, or high entropy in URL parameters.</t>
+          <t>Password spraying pattern detected, characterized by a high volume of failed logins for multiple accounts with a limited set of passwords from a single or few source IPs.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Zeek http.log</t>
+          <t>Windows Event ID 4625</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Network devices</t>
+          <t>Servers</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Aggregate Zeek http.log data per public-facing application. Calculate time series data for metrics like HTTP status code counts (especially 4xx/5xx errors), request method distribution (GET, POST, etc.), and request volume. Use time series analysis (e.g., ARIMA, Holt-Winters) to detect anomalous spikes or shifts in these metrics compared to historical norms. For dynamic applications, calculate the Shannon entropy of URL parameters or paths for each source IP over a sliding window; a sustained high entropy can indicate fuzzing or scanning attempts. Use Inter-Quartile Range (IQR) or Z-score methods to flag outlier values in these metrics for further investigation.</t>
+          <t>Monitor for a high rate of failed logins (Windows Event ID 4625) originating from one or a few source IPs targeting many different user accounts within a short time window. Use correlation analysis to identify a one-to-many or few-to-many relationship between source IPs and distinct target accounts. A high ratio of distinct failed accounts to source IPs is a strong indicator of password spraying.</t>
         </is>
       </c>
     </row>
@@ -1751,11 +1751,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Has the adversary gained initial access to the network via phishing? (TA0001 - Initial Access)</t>
+          <t>Has the adversary gained initial access using valid accounts? (TA0001 - Initial Access)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1770,42 +1770,42 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>T1566 - Phishing</t>
+          <t>T1078 - Valid Accounts</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>T1566</t>
+          <t>T1078</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Phishing</t>
+          <t>Valid Accounts</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>5.1.1</t>
+          <t>4.1.4</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Receipt of emails containing known malicious indicators, such as URLs, domains, IP addresses, or file attachment hashes from threat intelligence feeds.</t>
+          <t>Successful login attempt matching a known breached credential from a public or private data leak.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Zeek files.log; Zeek smtp.log; Zeek http.log; Zeek conn.log</t>
+          <t>Windows Event ID 4624; Windows Event ID 4625</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Network devices</t>
+          <t>Servers</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Continuously ingest high-confidence Cyber Threat Intelligence (CTI) feeds of malicious URLs, domains, IP addresses, and file hashes. Create a process to inner join this CTI data with network logs. Correlate Zeek smtp.log data (sender IP, URLs in body), Zeek http.log data (visited URLs/domains), Zeek conn.log (connections to known malicious IPs), and Zeek files.log (MD5/SHA1 hashes of email attachments) against the CTI feeds. Generate an alert for any match.</t>
+          <t>Correlate usernames from successful and failed login events (Windows Event IDs 4624, 4625) against a curated list of known breached credentials relevant to the organization. If password hashes are logged (e.g., for NTLM), they can also be matched. A successful login (4624) using a known breached credential is a high-confidence indicator of compromise and requires immediate investigation of the session activity.</t>
         </is>
       </c>
     </row>
@@ -1828,17 +1828,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Has the adversary gained initial access to the network via phishing? (TA0001 - Initial Access)</t>
+          <t>Has the adversary achieved privilege escalation using valid accounts? (TA0004 - Privilege Escalation)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TA0001</t>
+          <t>TA0004</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Initial Access</t>
+          <t>Privilege Escalation</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1848,37 +1848,37 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>T1566 - Phishing</t>
+          <t>T1078 - Valid Accounts</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>T1566</t>
+          <t>T1078</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Phishing</t>
+          <t>Valid Accounts</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5.1.2</t>
+          <t>5.1.1</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Emails matching known phishing campaign templates, containing common malicious attachment names or types, or exhibiting specific header manipulation patterns.</t>
+          <t>A known default, high-privilege service or application account is used for an interactive or remote login for the first time or from an unusual source.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Zeek smtp.log; Zeek files.log</t>
+          <t>Windows Event ID 4624</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Network devices</t>
+          <t>Servers; Endpoints</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Use regular expressions to scan Zeek smtp.log subjects and bodies for patterns common to known phishing campaigns (e.g., 'Urgent - Invoice Overdue', 'Password Reset Confirmation'). Monitor Zeek files.log for suspicious attachment filenames (e.g., '*.pdf.exe', 'invoice_*.zip', double extensions). Analyze SMTP headers for specific patterns like a mismatch between 'From:' and 'Reply-To:' fields or the presence of unusual 'X-' headers commonly used by phishing kits.</t>
+          <t>Maintain a selector list of known default administrative accounts for hardware and software in the environment (e.g., vendor-specific defaults). Monitor for any interactive (Logon Type 2) or remote (Logon Type 3, 10) successful logins (Windows Event ID 4624) using these accounts. Alert on any such login, as these accounts should typically not be used for interactive sessions.</t>
         </is>
       </c>
     </row>
@@ -1901,17 +1901,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Has the adversary gained initial access to the network via phishing? (TA0001 - Initial Access)</t>
+          <t>Has the adversary achieved privilege escalation using valid accounts? (TA0004 - Privilege Escalation)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TA0001</t>
+          <t>TA0004</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Initial Access</t>
+          <t>Privilege Escalation</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1921,37 +1921,37 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>T1566 - Phishing</t>
+          <t>T1078 - Valid Accounts</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>T1566</t>
+          <t>T1078</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Phishing</t>
+          <t>Valid Accounts</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5.1.3</t>
+          <t>5.1.2</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Anomalous process execution chain originating from an email client or browser, such as an Office application spawning a shell or scripting interpreter.</t>
+          <t>A standard user account successfully logs into a series of systems or uses explicit credentials for services it does not typically access, following activity indicative of credential theft on its source machine.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Windows Event ID 4688</t>
+          <t>Windows Event ID 4624; Windows Event ID 4648; Windows Event ID 4688</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Endpoints; Servers</t>
+          <t>Servers; Endpoints</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Monitor Windows Event ID 4688 for parent-child process relationships. Flag suspicious chains commonly associated with phishing payloads, such as an email client (e.g., outlook.exe) or browser spawning an Office application (e.g., winword.exe), which in turn spawns a command shell (cmd.exe), scripting interpreter (powershell.exe, wscript.exe, cscript.exe), or living-off-the-land binary (mshta.exe, rundll32.exe). Establish a baseline of normal parent-child process relationships and use correlation analysis to identify and alert on rare or known-bad deviations.</t>
+          <t>Establish a behavioral baseline of normal resource access for each user. Monitor for alerts related to credential dumping (e.g., access to LSASS process) on a user's machine. Following such an alert, track the associated user account for anomalous remote logins (Windows Event ID 4624) or explicit credential use (Windows Event ID 4648) to new systems or services. Use correlation analysis to link the potential credential theft event with the subsequent anomalous access, indicating the stolen credentials are being used to escalate privileges.</t>
         </is>
       </c>
     </row>
@@ -1974,17 +1974,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Has the adversary gained initial access to the network via phishing? (TA0001 - Initial Access)</t>
+          <t>Has the adversary achieved privilege escalation using valid accounts? (TA0004 - Privilege Escalation)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TA0001</t>
+          <t>TA0004</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Initial Access</t>
+          <t>Privilege Escalation</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1994,37 +1994,37 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>T1566 - Phishing</t>
+          <t>T1078 - Valid Accounts</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>T1566</t>
+          <t>T1078</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Phishing</t>
+          <t>Valid Accounts</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>5.1.4</t>
+          <t>5.1.3</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>A user clicks a link in an email followed by network traffic to a newly registered or low-reputation domain and subsequent submission of data via HTTP POST.</t>
+          <t>A valid non-administrative account is added to a privileged security group, followed by that account being used to log in.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Zeek smtp.log; Zeek dns.log; Zeek http.log</t>
+          <t>Windows Event ID 4728; Windows Event ID 4732; Windows Event ID 4624</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Network devices</t>
+          <t>Servers</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Correlate email receipt (Zeek smtp.log) with subsequent DNS queries (Zeek dns.log) for domains found in email bodies. Check domain age (via WHOIS data enrichment) and reputation against threat intelligence. If a user browses to a new or suspicious site (Zeek http.log), monitor for an HTTP POST request, especially if the Content-Type is 'application/x-www-form-urlencoded', which may indicate credential submission to a phishing page. Use time series analysis on DNS logs to identify spikes in queries to previously unseen domains across the enterprise.</t>
+          <t>Monitor for member addition events to privileged groups (e.g., Domain Admins, Administrators) via Windows Event IDs 4728 (global group) and 4732 (local group). This is a known pattern of privilege escalation. Correlate this event with a subsequent successful login (Windows Event ID 4624) by the newly privileged account within a short timeframe (e.g., 1 hour). This sequence is a high-confidence alert.</t>
         </is>
       </c>
     </row>
@@ -2047,17 +2047,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Has the adversary gained initial access to the network via phishing? (TA0001 - Initial Access)</t>
+          <t>Has the adversary achieved privilege escalation using valid accounts? (TA0004 - Privilege Escalation)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TA0001</t>
+          <t>TA0004</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Initial Access</t>
+          <t>Privilege Escalation</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2067,37 +2067,37 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>T1566 - Phishing</t>
+          <t>T1078 - Valid Accounts</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>T1566</t>
+          <t>T1078</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Phishing</t>
+          <t>Valid Accounts</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>5.1.5</t>
+          <t>5.1.4</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Emails originating from domains with no prior history of communication or those exhibiting anomalous sending patterns compared to established baselines.</t>
+          <t>An unusual number of distinct user accounts log into a single non-standard host, such as a user endpoint, in a short period.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Zeek smtp.log</t>
+          <t>Windows Event ID 4624</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Network devices</t>
+          <t>Endpoints</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Establish a baseline of normal email flow by analyzing historical Zeek smtp.log data to map sender-recipient relationships and typical email volume/frequency. Use descriptive statistics and time series analysis to identify a sudden spike in emails from a new external domain or a sudden change in sending patterns from a previously trusted domain. Calculate the entropy of sender domains on a per-user or per-organization basis; a sudden increase can indicate a targeted phishing wave. Flag emails from domains that impersonate the organization's domain but fail SPF/DKIM/DMARC checks.</t>
+          <t>Aggregate successful login events (Windows Event ID 4624) by destination host. Profile the normal number of distinct users logging into different types of systems (e.g., servers vs. endpoints). Use descriptive statistics and outlier detection (e.g., IQR, Z-score) to flag any host, particularly a standard user workstation, that receives successful logins from an anomalously high number of distinct accounts in a short time. This may indicate the host is compromised and being used to harvest credentials from multiple users.</t>
         </is>
       </c>
     </row>
